--- a/outData/case_震荡上升_70天_振幅70%.xlsx
+++ b/outData/case_震荡上升_70天_振幅70%.xlsx
@@ -29,10 +29,6 @@
     <t>150172.SZ</t>
   </si>
   <si>
-    <t>windCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SNID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,6 +46,10 @@
   </si>
   <si>
     <t>Colse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,29 +383,34 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -416,13 +421,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>28.333600000000001</v>
+        <v>31.958600000000001</v>
       </c>
       <c r="D2">
-        <v>31.424099999999999</v>
+        <v>33.657899999999998</v>
       </c>
       <c r="E2">
-        <v>29.435199999999998</v>
+        <v>28.500900000000001</v>
       </c>
       <c r="F2">
         <v>31</v>
@@ -436,16 +441,16 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>30.7287</v>
+        <v>31.459099999999999</v>
       </c>
       <c r="D3">
-        <v>33.684699999999999</v>
+        <v>32.555399999999999</v>
       </c>
       <c r="E3">
-        <v>30.461200000000002</v>
+        <v>31.3279</v>
       </c>
       <c r="F3">
-        <v>33.3917</v>
+        <v>31.885999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -456,16 +461,16 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>32.368000000000002</v>
+        <v>33.168199999999999</v>
       </c>
       <c r="D4">
-        <v>35.337299999999999</v>
+        <v>34.427599999999998</v>
       </c>
       <c r="E4">
-        <v>32.049100000000003</v>
+        <v>32.8703</v>
       </c>
       <c r="F4">
-        <v>32.68</v>
+        <v>34.190600000000003</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -476,16 +481,16 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>34.218499999999999</v>
+        <v>36.872500000000002</v>
       </c>
       <c r="D5">
-        <v>34.8322</v>
+        <v>37.262700000000002</v>
       </c>
       <c r="E5">
-        <v>33.838000000000001</v>
+        <v>34.559600000000003</v>
       </c>
       <c r="F5">
-        <v>34.679099999999998</v>
+        <v>35.220199999999998</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -496,16 +501,16 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>36.716700000000003</v>
+        <v>37.897199999999998</v>
       </c>
       <c r="D6">
-        <v>37.438800000000001</v>
+        <v>38.737900000000003</v>
       </c>
       <c r="E6">
-        <v>35.058799999999998</v>
+        <v>37.703800000000001</v>
       </c>
       <c r="F6">
-        <v>36.118000000000002</v>
+        <v>38.091799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -516,16 +521,16 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>37.440399999999997</v>
+        <v>39.485100000000003</v>
       </c>
       <c r="D7">
-        <v>37.483699999999999</v>
+        <v>40.812800000000003</v>
       </c>
       <c r="E7">
-        <v>36.447200000000002</v>
+        <v>39.484699999999997</v>
       </c>
       <c r="F7">
-        <v>37.362900000000003</v>
+        <v>40.253399999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -536,16 +541,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>39.0246</v>
+        <v>43.373199999999997</v>
       </c>
       <c r="D8">
-        <v>40.982700000000001</v>
+        <v>44.054000000000002</v>
       </c>
       <c r="E8">
-        <v>38.152200000000001</v>
+        <v>41.184199999999997</v>
       </c>
       <c r="F8">
-        <v>38.243299999999998</v>
+        <v>42.244100000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -556,16 +561,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>41.314300000000003</v>
+        <v>45.5974</v>
       </c>
       <c r="D9">
-        <v>41.5411</v>
+        <v>46.462299999999999</v>
       </c>
       <c r="E9">
-        <v>40.160600000000002</v>
+        <v>44.431899999999999</v>
       </c>
       <c r="F9">
-        <v>40.603700000000003</v>
+        <v>46.148800000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -576,16 +581,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>41.911799999999999</v>
+        <v>48.160699999999999</v>
       </c>
       <c r="D10">
-        <v>44.655700000000003</v>
+        <v>50.143700000000003</v>
       </c>
       <c r="E10">
-        <v>41.618499999999997</v>
+        <v>49.096200000000003</v>
       </c>
       <c r="F10">
-        <v>43.350999999999999</v>
+        <v>50.196399999999997</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -596,16 +601,16 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>43.911000000000001</v>
+        <v>47.042499999999997</v>
       </c>
       <c r="D11">
-        <v>47.416499999999999</v>
+        <v>53.426600000000001</v>
       </c>
       <c r="E11">
-        <v>43.345399999999998</v>
+        <v>46.817399999999999</v>
       </c>
       <c r="F11">
-        <v>44.026299999999999</v>
+        <v>48.687199999999997</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -616,16 +621,16 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>46.858600000000003</v>
+        <v>49.648000000000003</v>
       </c>
       <c r="D12">
-        <v>48.3294</v>
+        <v>51.787999999999997</v>
       </c>
       <c r="E12">
-        <v>43.287799999999997</v>
+        <v>46.0259</v>
       </c>
       <c r="F12">
-        <v>49.870899999999999</v>
+        <v>49.488599999999998</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -636,16 +641,16 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>46.468000000000004</v>
+        <v>45.572299999999998</v>
       </c>
       <c r="D13">
-        <v>51.364899999999999</v>
+        <v>48.179499999999997</v>
       </c>
       <c r="E13">
-        <v>45.709200000000003</v>
+        <v>44.569200000000002</v>
       </c>
       <c r="F13">
-        <v>47.174500000000002</v>
+        <v>46.186</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -656,16 +661,16 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>46.755400000000002</v>
+        <v>47.407200000000003</v>
       </c>
       <c r="D14">
-        <v>49.925699999999999</v>
+        <v>48.226199999999999</v>
       </c>
       <c r="E14">
-        <v>44.353700000000003</v>
+        <v>42.09</v>
       </c>
       <c r="F14">
-        <v>46.969499999999996</v>
+        <v>44.842100000000002</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -676,16 +681,16 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>47.4377</v>
+        <v>46.2136</v>
       </c>
       <c r="D15">
-        <v>49.987499999999997</v>
+        <v>46.968699999999998</v>
       </c>
       <c r="E15">
-        <v>42.615699999999997</v>
+        <v>42.364600000000003</v>
       </c>
       <c r="F15">
-        <v>44.166899999999998</v>
+        <v>43.789000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -696,16 +701,16 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>48.331499999999998</v>
+        <v>42.773400000000002</v>
       </c>
       <c r="D16">
-        <v>48.558700000000002</v>
+        <v>45.430399999999999</v>
       </c>
       <c r="E16">
-        <v>40.395299999999999</v>
+        <v>40.872900000000001</v>
       </c>
       <c r="F16">
-        <v>45.688899999999997</v>
+        <v>43.5214</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -716,16 +721,16 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>42.648699999999998</v>
+        <v>42.5764</v>
       </c>
       <c r="D17">
-        <v>45.180199999999999</v>
+        <v>43.935000000000002</v>
       </c>
       <c r="E17">
-        <v>42.045999999999999</v>
+        <v>39.821300000000001</v>
       </c>
       <c r="F17">
-        <v>43.2072</v>
+        <v>42.419400000000003</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -736,16 +741,16 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>40.742899999999999</v>
+        <v>40.952500000000001</v>
       </c>
       <c r="D18">
-        <v>44.819400000000002</v>
+        <v>41.6265</v>
       </c>
       <c r="E18">
-        <v>40.5503</v>
+        <v>38.9741</v>
       </c>
       <c r="F18">
-        <v>44.665500000000002</v>
+        <v>41.1325</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -756,16 +761,16 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>41.151400000000002</v>
+        <v>39.266599999999997</v>
       </c>
       <c r="D19">
-        <v>44.027500000000003</v>
+        <v>40.180999999999997</v>
       </c>
       <c r="E19">
-        <v>40.438400000000001</v>
+        <v>37.558999999999997</v>
       </c>
       <c r="F19">
-        <v>40.961399999999998</v>
+        <v>37.631100000000004</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -776,16 +781,16 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>37.676200000000001</v>
+        <v>37.161499999999997</v>
       </c>
       <c r="D20">
-        <v>41.779499999999999</v>
+        <v>38.81</v>
       </c>
       <c r="E20">
-        <v>37.24</v>
+        <v>36.909999999999997</v>
       </c>
       <c r="F20">
-        <v>38.216700000000003</v>
+        <v>38.534399999999998</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -796,16 +801,16 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>39.687199999999997</v>
+        <v>34.989400000000003</v>
       </c>
       <c r="D21">
-        <v>40.5105</v>
+        <v>37.664700000000003</v>
       </c>
       <c r="E21">
-        <v>38.313499999999998</v>
+        <v>34.790799999999997</v>
       </c>
       <c r="F21">
-        <v>39.597999999999999</v>
+        <v>35.557499999999997</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -816,16 +821,16 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>38.22</v>
+        <v>34.632599999999996</v>
       </c>
       <c r="D22">
-        <v>39.734499999999997</v>
+        <v>35.560400000000001</v>
       </c>
       <c r="E22">
-        <v>37.463500000000003</v>
+        <v>33.667299999999997</v>
       </c>
       <c r="F22">
-        <v>39.160299999999999</v>
+        <v>33.785699999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -836,16 +841,16 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>35.545499999999997</v>
+        <v>34.013199999999998</v>
       </c>
       <c r="D23">
-        <v>38.227800000000002</v>
+        <v>34.493499999999997</v>
       </c>
       <c r="E23">
-        <v>35.250999999999998</v>
+        <v>30.976600000000001</v>
       </c>
       <c r="F23">
-        <v>38.142299999999999</v>
+        <v>31.259599999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -856,16 +861,16 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>36.345799999999997</v>
+        <v>30.906600000000001</v>
       </c>
       <c r="D24">
-        <v>36.657600000000002</v>
+        <v>31.032499999999999</v>
       </c>
       <c r="E24">
-        <v>34.819400000000002</v>
+        <v>29.1465</v>
       </c>
       <c r="F24">
-        <v>35.431199999999997</v>
+        <v>30.795200000000001</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -876,16 +881,16 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>32.6389</v>
+        <v>30.209900000000001</v>
       </c>
       <c r="D25">
-        <v>35.247799999999998</v>
+        <v>30.640799999999999</v>
       </c>
       <c r="E25">
-        <v>32.240099999999998</v>
+        <v>27.739599999999999</v>
       </c>
       <c r="F25">
-        <v>34.872199999999999</v>
+        <v>28.496400000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -896,16 +901,16 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>31.9542</v>
+        <v>29.2561</v>
       </c>
       <c r="D26">
-        <v>32.593400000000003</v>
+        <v>31.107399999999998</v>
       </c>
       <c r="E26">
-        <v>31.682300000000001</v>
+        <v>27.569500000000001</v>
       </c>
       <c r="F26">
-        <v>32.449199999999998</v>
+        <v>28.141100000000002</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -916,16 +921,16 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>30.182700000000001</v>
+        <v>30.242100000000001</v>
       </c>
       <c r="D27">
-        <v>32.270299999999999</v>
+        <v>30.617000000000001</v>
       </c>
       <c r="E27">
-        <v>29.380299999999998</v>
+        <v>29.295500000000001</v>
       </c>
       <c r="F27">
-        <v>29.605499999999999</v>
+        <v>30.327300000000001</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -936,16 +941,16 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>27.329799999999999</v>
+        <v>32.278199999999998</v>
       </c>
       <c r="D28">
-        <v>30.920200000000001</v>
+        <v>33.068300000000001</v>
       </c>
       <c r="E28">
-        <v>28.1615</v>
+        <v>31.443899999999999</v>
       </c>
       <c r="F28">
-        <v>28.1709</v>
+        <v>31.977900000000002</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -956,16 +961,16 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <v>26.584</v>
+        <v>34.7346</v>
       </c>
       <c r="D29">
-        <v>28.890799999999999</v>
+        <v>35.153500000000001</v>
       </c>
       <c r="E29">
-        <v>26.5672</v>
+        <v>32.620100000000001</v>
       </c>
       <c r="F29">
-        <v>28.505099999999999</v>
+        <v>35.109499999999997</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -976,16 +981,16 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <v>30.234200000000001</v>
+        <v>35.829799999999999</v>
       </c>
       <c r="D30">
-        <v>30.980599999999999</v>
+        <v>36.330399999999997</v>
       </c>
       <c r="E30">
-        <v>28.873999999999999</v>
+        <v>35.313499999999998</v>
       </c>
       <c r="F30">
-        <v>28.979099999999999</v>
+        <v>35.326999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -996,16 +1001,16 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>29.9359</v>
+        <v>36.847200000000001</v>
       </c>
       <c r="D31">
-        <v>30.029499999999999</v>
+        <v>38.017099999999999</v>
       </c>
       <c r="E31">
-        <v>29.038</v>
+        <v>36.751300000000001</v>
       </c>
       <c r="F31">
-        <v>29.653700000000001</v>
+        <v>37.241399999999999</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1016,16 +1021,16 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>30.864999999999998</v>
+        <v>39.277099999999997</v>
       </c>
       <c r="D32">
-        <v>32.302199999999999</v>
+        <v>39.695599999999999</v>
       </c>
       <c r="E32">
-        <v>30.478999999999999</v>
+        <v>39.034399999999998</v>
       </c>
       <c r="F32">
-        <v>32.032800000000002</v>
+        <v>39.459200000000003</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1036,16 +1041,16 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>33.748399999999997</v>
+        <v>41.186999999999998</v>
       </c>
       <c r="D33">
-        <v>33.790599999999998</v>
+        <v>42.2624</v>
       </c>
       <c r="E33">
-        <v>31.6084</v>
+        <v>40.843800000000002</v>
       </c>
       <c r="F33">
-        <v>32.795699999999997</v>
+        <v>41.116700000000002</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1056,16 +1061,16 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <v>33.885199999999998</v>
+        <v>44.724899999999998</v>
       </c>
       <c r="D34">
-        <v>34.622199999999999</v>
+        <v>44.764699999999998</v>
       </c>
       <c r="E34">
-        <v>32.570900000000002</v>
+        <v>41.8001</v>
       </c>
       <c r="F34">
-        <v>34.384799999999998</v>
+        <v>43.165199999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -1076,16 +1081,16 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>35.633000000000003</v>
+        <v>47.144199999999998</v>
       </c>
       <c r="D35">
-        <v>37.615499999999997</v>
+        <v>47.1556</v>
       </c>
       <c r="E35">
-        <v>34.796300000000002</v>
+        <v>45.474600000000002</v>
       </c>
       <c r="F35">
-        <v>36.317900000000002</v>
+        <v>47.798200000000001</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -1096,16 +1101,16 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <v>36.853299999999997</v>
+        <v>48.983699999999999</v>
       </c>
       <c r="D36">
-        <v>38.5334</v>
+        <v>50.340600000000002</v>
       </c>
       <c r="E36">
-        <v>36.796799999999998</v>
+        <v>43.157699999999998</v>
       </c>
       <c r="F36">
-        <v>38.044400000000003</v>
+        <v>46.135899999999999</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -1116,16 +1121,16 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>36.8919</v>
+        <v>45.102499999999999</v>
       </c>
       <c r="D37">
-        <v>39.421100000000003</v>
+        <v>49.450699999999998</v>
       </c>
       <c r="E37">
-        <v>36.230800000000002</v>
+        <v>43.959899999999998</v>
       </c>
       <c r="F37">
-        <v>36.2592</v>
+        <v>48.1646</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1136,16 +1141,16 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <v>39.176299999999998</v>
+        <v>44.090400000000002</v>
       </c>
       <c r="D38">
-        <v>39.4619</v>
+        <v>48.430999999999997</v>
       </c>
       <c r="E38">
-        <v>35.555</v>
+        <v>43.652799999999999</v>
       </c>
       <c r="F38">
-        <v>41.096899999999998</v>
+        <v>47.794800000000002</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1156,16 +1161,16 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>40.944400000000002</v>
+        <v>44.627000000000002</v>
       </c>
       <c r="D39">
-        <v>44.544499999999999</v>
+        <v>45.981299999999997</v>
       </c>
       <c r="E39">
-        <v>38.855899999999998</v>
+        <v>43.143000000000001</v>
       </c>
       <c r="F39">
-        <v>39.787199999999999</v>
+        <v>45.3003</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1176,16 +1181,16 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>37.645499999999998</v>
+        <v>42.938800000000001</v>
       </c>
       <c r="D40">
-        <v>42.8033</v>
+        <v>43.212899999999998</v>
       </c>
       <c r="E40">
-        <v>36.232100000000003</v>
+        <v>40.914200000000001</v>
       </c>
       <c r="F40">
-        <v>36.618000000000002</v>
+        <v>41.806399999999996</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1196,16 +1201,16 @@
         <v>40</v>
       </c>
       <c r="C41">
-        <v>39.659599999999998</v>
+        <v>38.474800000000002</v>
       </c>
       <c r="D41">
-        <v>40.209099999999999</v>
+        <v>45.504199999999997</v>
       </c>
       <c r="E41">
-        <v>36.942900000000002</v>
+        <v>37.859499999999997</v>
       </c>
       <c r="F41">
-        <v>38.705300000000001</v>
+        <v>41.223100000000002</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1216,16 +1221,16 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>41.485799999999998</v>
+        <v>41.228400000000001</v>
       </c>
       <c r="D42">
-        <v>42.1387</v>
+        <v>43.116999999999997</v>
       </c>
       <c r="E42">
-        <v>38.218600000000002</v>
+        <v>40.8581</v>
       </c>
       <c r="F42">
-        <v>38.3874</v>
+        <v>41.900500000000001</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -1236,16 +1241,16 @@
         <v>42</v>
       </c>
       <c r="C43">
-        <v>40.403500000000001</v>
+        <v>41.003999999999998</v>
       </c>
       <c r="D43">
-        <v>41.499600000000001</v>
+        <v>41.497599999999998</v>
       </c>
       <c r="E43">
-        <v>34.743099999999998</v>
+        <v>38.424199999999999</v>
       </c>
       <c r="F43">
-        <v>37.434199999999997</v>
+        <v>38.429900000000004</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -1256,16 +1261,16 @@
         <v>43</v>
       </c>
       <c r="C44">
-        <v>38.009300000000003</v>
+        <v>39.826999999999998</v>
       </c>
       <c r="D44">
-        <v>40.799999999999997</v>
+        <v>41.8339</v>
       </c>
       <c r="E44">
-        <v>37.409199999999998</v>
+        <v>36.819600000000001</v>
       </c>
       <c r="F44">
-        <v>39.236499999999999</v>
+        <v>40.163800000000002</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -1276,16 +1281,16 @@
         <v>44</v>
       </c>
       <c r="C45">
-        <v>38.577300000000001</v>
+        <v>38.051699999999997</v>
       </c>
       <c r="D45">
-        <v>40.430100000000003</v>
+        <v>41.085099999999997</v>
       </c>
       <c r="E45">
-        <v>36.875700000000002</v>
+        <v>36.950299999999999</v>
       </c>
       <c r="F45">
-        <v>37.2363</v>
+        <v>38.0488</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -1296,16 +1301,16 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>39.031100000000002</v>
+        <v>38.936199999999999</v>
       </c>
       <c r="D46">
-        <v>39.103700000000003</v>
+        <v>40.114600000000003</v>
       </c>
       <c r="E46">
-        <v>35.885800000000003</v>
+        <v>35.225499999999997</v>
       </c>
       <c r="F46">
-        <v>36.616500000000002</v>
+        <v>39.191499999999998</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -1316,16 +1321,16 @@
         <v>46</v>
       </c>
       <c r="C47">
-        <v>35.761699999999998</v>
+        <v>38.869999999999997</v>
       </c>
       <c r="D47">
-        <v>37.4223</v>
+        <v>39.073500000000003</v>
       </c>
       <c r="E47">
-        <v>33.015700000000002</v>
+        <v>36.659199999999998</v>
       </c>
       <c r="F47">
-        <v>35.874299999999998</v>
+        <v>37.3429</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -1336,16 +1341,16 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>37.293100000000003</v>
+        <v>36.370199999999997</v>
       </c>
       <c r="D48">
-        <v>38.598300000000002</v>
+        <v>37.201999999999998</v>
       </c>
       <c r="E48">
-        <v>32.438899999999997</v>
+        <v>33.905000000000001</v>
       </c>
       <c r="F48">
-        <v>33.260199999999998</v>
+        <v>36.286000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -1356,16 +1361,16 @@
         <v>48</v>
       </c>
       <c r="C49">
-        <v>35.077399999999997</v>
+        <v>33.092799999999997</v>
       </c>
       <c r="D49">
-        <v>35.122599999999998</v>
+        <v>35.4497</v>
       </c>
       <c r="E49">
-        <v>31.747399999999999</v>
+        <v>33.089500000000001</v>
       </c>
       <c r="F49">
-        <v>34.252899999999997</v>
+        <v>33.493400000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -1376,16 +1381,16 @@
         <v>49</v>
       </c>
       <c r="C50">
-        <v>32.162100000000002</v>
+        <v>32.421799999999998</v>
       </c>
       <c r="D50">
-        <v>37.099299999999999</v>
+        <v>35.589599999999997</v>
       </c>
       <c r="E50">
-        <v>31.4375</v>
+        <v>30.947199999999999</v>
       </c>
       <c r="F50">
-        <v>34.448700000000002</v>
+        <v>35.159100000000002</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -1396,16 +1401,16 @@
         <v>50</v>
       </c>
       <c r="C51">
-        <v>33.363599999999998</v>
+        <v>33.127299999999998</v>
       </c>
       <c r="D51">
-        <v>35.452800000000003</v>
+        <v>34.699399999999997</v>
       </c>
       <c r="E51">
-        <v>31.055599999999998</v>
+        <v>32.1464</v>
       </c>
       <c r="F51">
-        <v>33.232100000000003</v>
+        <v>34.126300000000001</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -1416,16 +1421,16 @@
         <v>51</v>
       </c>
       <c r="C52">
-        <v>32.296599999999998</v>
+        <v>32.665700000000001</v>
       </c>
       <c r="D52">
-        <v>33.5396</v>
+        <v>33.545999999999999</v>
       </c>
       <c r="E52">
-        <v>31.546700000000001</v>
+        <v>31.447900000000001</v>
       </c>
       <c r="F52">
-        <v>32.985199999999999</v>
+        <v>30.549299999999999</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -1436,16 +1441,16 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>33.628599999999999</v>
+        <v>29.3949</v>
       </c>
       <c r="D53">
-        <v>35.078699999999998</v>
+        <v>32.481499999999997</v>
       </c>
       <c r="E53">
-        <v>31.135400000000001</v>
+        <v>28.971299999999999</v>
       </c>
       <c r="F53">
-        <v>32.170200000000001</v>
+        <v>29.539899999999999</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -1456,16 +1461,16 @@
         <v>53</v>
       </c>
       <c r="C54">
-        <v>33.395400000000002</v>
+        <v>28.8081</v>
       </c>
       <c r="D54">
-        <v>34.267899999999997</v>
+        <v>29.752099999999999</v>
       </c>
       <c r="E54">
-        <v>29.337199999999999</v>
+        <v>28.340699999999998</v>
       </c>
       <c r="F54">
-        <v>31.104800000000001</v>
+        <v>28.361899999999999</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -1476,16 +1481,16 @@
         <v>54</v>
       </c>
       <c r="C55">
-        <v>32.567500000000003</v>
+        <v>29.0398</v>
       </c>
       <c r="D55">
-        <v>33.712000000000003</v>
+        <v>30.532499999999999</v>
       </c>
       <c r="E55">
-        <v>29.7273</v>
+        <v>28.753499999999999</v>
       </c>
       <c r="F55">
-        <v>32.803699999999999</v>
+        <v>29.831700000000001</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -1496,16 +1501,16 @@
         <v>55</v>
       </c>
       <c r="C56">
-        <v>31.726400000000002</v>
+        <v>30.592700000000001</v>
       </c>
       <c r="D56">
-        <v>33.225099999999998</v>
+        <v>32.525799999999997</v>
       </c>
       <c r="E56">
-        <v>31.708600000000001</v>
+        <v>29.892800000000001</v>
       </c>
       <c r="F56">
-        <v>31.882100000000001</v>
+        <v>30.745200000000001</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -1516,16 +1521,16 @@
         <v>56</v>
       </c>
       <c r="C57">
-        <v>30.234300000000001</v>
+        <v>32.450800000000001</v>
       </c>
       <c r="D57">
-        <v>31.5761</v>
+        <v>32.588999999999999</v>
       </c>
       <c r="E57">
-        <v>29.185400000000001</v>
+        <v>29.4754</v>
       </c>
       <c r="F57">
-        <v>30.652100000000001</v>
+        <v>32.555500000000002</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -1536,16 +1541,16 @@
         <v>57</v>
       </c>
       <c r="C58">
-        <v>28.9818</v>
+        <v>29.8049</v>
       </c>
       <c r="D58">
-        <v>32.304000000000002</v>
+        <v>33.161000000000001</v>
       </c>
       <c r="E58">
-        <v>27.907</v>
+        <v>29.782599999999999</v>
       </c>
       <c r="F58">
-        <v>29.076000000000001</v>
+        <v>32.617100000000001</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -1556,16 +1561,16 @@
         <v>58</v>
       </c>
       <c r="C59">
-        <v>26.8523</v>
+        <v>32.361899999999999</v>
       </c>
       <c r="D59">
-        <v>29.299900000000001</v>
+        <v>35.1175</v>
       </c>
       <c r="E59">
-        <v>28.264700000000001</v>
+        <v>30.384499999999999</v>
       </c>
       <c r="F59">
-        <v>28.814800000000002</v>
+        <v>33.4833</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -1576,16 +1581,16 @@
         <v>59</v>
       </c>
       <c r="C60">
-        <v>30.4101</v>
+        <v>32.946899999999999</v>
       </c>
       <c r="D60">
-        <v>30.7028</v>
+        <v>36.470500000000001</v>
       </c>
       <c r="E60">
-        <v>28.628699999999998</v>
+        <v>31.161799999999999</v>
       </c>
       <c r="F60">
-        <v>30.052800000000001</v>
+        <v>32.028599999999997</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -1596,16 +1601,16 @@
         <v>60</v>
       </c>
       <c r="C61">
-        <v>29.8719</v>
+        <v>33.745399999999997</v>
       </c>
       <c r="D61">
-        <v>32.046599999999998</v>
+        <v>34.548999999999999</v>
       </c>
       <c r="E61">
-        <v>29.7056</v>
+        <v>31.126100000000001</v>
       </c>
       <c r="F61">
-        <v>31.525400000000001</v>
+        <v>33.567500000000003</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -1616,16 +1621,16 @@
         <v>61</v>
       </c>
       <c r="C62">
-        <v>31.307700000000001</v>
+        <v>36.858199999999997</v>
       </c>
       <c r="D62">
-        <v>32.6785</v>
+        <v>36.872500000000002</v>
       </c>
       <c r="E62">
-        <v>29.961400000000001</v>
+        <v>31.4178</v>
       </c>
       <c r="F62">
-        <v>32.398899999999998</v>
+        <v>36.220599999999997</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -1636,16 +1641,16 @@
         <v>62</v>
       </c>
       <c r="C63">
-        <v>32.067799999999998</v>
+        <v>36.143700000000003</v>
       </c>
       <c r="D63">
-        <v>35.072699999999998</v>
+        <v>36.939900000000002</v>
       </c>
       <c r="E63">
-        <v>31.186800000000002</v>
+        <v>32.871499999999997</v>
       </c>
       <c r="F63">
-        <v>31.949200000000001</v>
+        <v>34.868200000000002</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -1656,16 +1661,16 @@
         <v>63</v>
       </c>
       <c r="C64">
-        <v>32.844700000000003</v>
+        <v>33.692700000000002</v>
       </c>
       <c r="D64">
-        <v>34.595300000000002</v>
+        <v>35.7517</v>
       </c>
       <c r="E64">
-        <v>32.779299999999999</v>
+        <v>33.122999999999998</v>
       </c>
       <c r="F64">
-        <v>34.067100000000003</v>
+        <v>34.429400000000001</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -1676,16 +1681,16 @@
         <v>64</v>
       </c>
       <c r="C65">
-        <v>36.455800000000004</v>
+        <v>35.1312</v>
       </c>
       <c r="D65">
-        <v>36.542000000000002</v>
+        <v>35.371400000000001</v>
       </c>
       <c r="E65">
-        <v>35.369399999999999</v>
+        <v>34.1233</v>
       </c>
       <c r="F65">
-        <v>35.978999999999999</v>
+        <v>35.094700000000003</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
@@ -1696,16 +1701,16 @@
         <v>65</v>
       </c>
       <c r="C66">
-        <v>38.094700000000003</v>
+        <v>35.505699999999997</v>
       </c>
       <c r="D66">
-        <v>38.471899999999998</v>
+        <v>37.867699999999999</v>
       </c>
       <c r="E66">
-        <v>35.605899999999998</v>
+        <v>32.207099999999997</v>
       </c>
       <c r="F66">
-        <v>36.240499999999997</v>
+        <v>34.445300000000003</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -1716,16 +1721,16 @@
         <v>66</v>
       </c>
       <c r="C67">
-        <v>37.892000000000003</v>
+        <v>33.607900000000001</v>
       </c>
       <c r="D67">
-        <v>39.829300000000003</v>
+        <v>37.766199999999998</v>
       </c>
       <c r="E67">
-        <v>34.973700000000001</v>
+        <v>32.537100000000002</v>
       </c>
       <c r="F67">
-        <v>36.911999999999999</v>
+        <v>32.817100000000003</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
@@ -1736,16 +1741,16 @@
         <v>67</v>
       </c>
       <c r="C68">
-        <v>40.165199999999999</v>
+        <v>35.810299999999998</v>
       </c>
       <c r="D68">
-        <v>40.501100000000001</v>
+        <v>35.887900000000002</v>
       </c>
       <c r="E68">
-        <v>37.469200000000001</v>
+        <v>33.543999999999997</v>
       </c>
       <c r="F68">
-        <v>40.371499999999997</v>
+        <v>35.756900000000002</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -1756,16 +1761,16 @@
         <v>68</v>
       </c>
       <c r="C69">
-        <v>40.724400000000003</v>
+        <v>36.9024</v>
       </c>
       <c r="D69">
-        <v>41.1721</v>
+        <v>36.929099999999998</v>
       </c>
       <c r="E69">
-        <v>37.091500000000003</v>
+        <v>33.805100000000003</v>
       </c>
       <c r="F69">
-        <v>40.1873</v>
+        <v>33.854399999999998</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -1776,16 +1781,16 @@
         <v>69</v>
       </c>
       <c r="C70">
-        <v>39.320099999999996</v>
+        <v>34.434800000000003</v>
       </c>
       <c r="D70">
-        <v>39.743200000000002</v>
+        <v>36.006599999999999</v>
       </c>
       <c r="E70">
-        <v>39.087899999999998</v>
+        <v>34.033799999999999</v>
       </c>
       <c r="F70">
-        <v>39.496000000000002</v>
+        <v>35.645299999999999</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -1796,16 +1801,16 @@
         <v>70</v>
       </c>
       <c r="C71">
-        <v>41.134300000000003</v>
+        <v>37.461399999999998</v>
       </c>
       <c r="D71">
-        <v>42.357999999999997</v>
+        <v>38.005499999999998</v>
       </c>
       <c r="E71">
-        <v>36.099499999999999</v>
+        <v>35.325899999999997</v>
       </c>
       <c r="F71">
-        <v>43.628799999999998</v>
+        <v>37.3247</v>
       </c>
     </row>
   </sheetData>
